--- a/atletas_data.xlsx
+++ b/atletas_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\APP DE GESTION DEPORTIVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150F7647-4EC4-47C5-B458-3EF28D3F0265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E702C7-8050-4397-AE24-5F93FCC6F7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,18 +46,12 @@
     <t>Última_Fecha</t>
   </si>
   <si>
-    <t>Juan Pérez</t>
-  </si>
-  <si>
     <t>1234</t>
   </si>
   <si>
     <t>2023-10-15</t>
   </si>
   <si>
-    <t>Ana Gómez</t>
-  </si>
-  <si>
     <t>5678</t>
   </si>
   <si>
@@ -71,6 +65,12 @@
   </si>
   <si>
     <t>2023-10-12</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Ana</t>
   </si>
 </sst>
 </file>
@@ -436,11 +436,12 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -479,10 +480,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -497,7 +498,7 @@
         <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -505,10 +506,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -523,7 +524,7 @@
         <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -531,13 +532,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>160</v>
@@ -549,7 +550,7 @@
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/atletas_data.xlsx
+++ b/atletas_data.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\APP DE GESTION DEPORTIVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E702C7-8050-4397-AE24-5F93FCC6F7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB0DB65-1D3A-4B5B-9E4B-5BCBBD309BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1575" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -46,38 +59,140 @@
     <t>Última_Fecha</t>
   </si>
   <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>2023-10-15</t>
-  </si>
-  <si>
-    <t>5678</t>
-  </si>
-  <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
     <t>Entrenador</t>
   </si>
   <si>
-    <t>2023-10-12</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Ana</t>
+    <t>RUU000</t>
+  </si>
+  <si>
+    <t>RUU426</t>
+  </si>
+  <si>
+    <t>RUU427</t>
+  </si>
+  <si>
+    <t>RUU428</t>
+  </si>
+  <si>
+    <t>RUU429</t>
+  </si>
+  <si>
+    <t>RUU430</t>
+  </si>
+  <si>
+    <t>Javier Gonzalez</t>
+  </si>
+  <si>
+    <t>Cesar Quintero</t>
+  </si>
+  <si>
+    <t>Laura Tique</t>
+  </si>
+  <si>
+    <t>Karen Vanegas</t>
+  </si>
+  <si>
+    <t>Leonardo Rivera</t>
+  </si>
+  <si>
+    <t>RUU432</t>
+  </si>
+  <si>
+    <t>RUU433</t>
+  </si>
+  <si>
+    <t>Evin Gutierrez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolas Correa </t>
+  </si>
+  <si>
+    <t>RUU435</t>
+  </si>
+  <si>
+    <t>Oscar Torralva</t>
+  </si>
+  <si>
+    <t>RUU440</t>
+  </si>
+  <si>
+    <t>Tania Cardenas</t>
+  </si>
+  <si>
+    <t>RUU441</t>
+  </si>
+  <si>
+    <t>Tristan Otero</t>
+  </si>
+  <si>
+    <t>RUU446</t>
+  </si>
+  <si>
+    <t>Gabriela Alvarado</t>
+  </si>
+  <si>
+    <t>RUU443</t>
+  </si>
+  <si>
+    <t>Joel Sanchez</t>
+  </si>
+  <si>
+    <t>RUU447</t>
+  </si>
+  <si>
+    <t>Alejandro Beltran</t>
+  </si>
+  <si>
+    <t>JG2025</t>
+  </si>
+  <si>
+    <t>CQ2025</t>
+  </si>
+  <si>
+    <t>LT2025</t>
+  </si>
+  <si>
+    <t>KV2025</t>
+  </si>
+  <si>
+    <t>LR2025</t>
+  </si>
+  <si>
+    <t>EG2025</t>
+  </si>
+  <si>
+    <t>NC2025</t>
+  </si>
+  <si>
+    <t>OT2025</t>
+  </si>
+  <si>
+    <t>TC2025</t>
+  </si>
+  <si>
+    <t>TO2025</t>
+  </si>
+  <si>
+    <t>GA2025</t>
+  </si>
+  <si>
+    <t>JS2025</t>
+  </si>
+  <si>
+    <t>AB2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atleta </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +204,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,10 +248,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,20 +561,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="16.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -476,84 +606,368 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45953</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3">
+        <v>161</v>
+      </c>
+      <c r="F3" s="3">
+        <v>76</v>
+      </c>
+      <c r="G3" s="3">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2">
+        <v>45954</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3">
+        <v>161</v>
+      </c>
+      <c r="F4" s="3">
+        <v>86</v>
+      </c>
+      <c r="G4" s="3">
+        <v>72</v>
+      </c>
+      <c r="H4" s="2">
+        <v>45954</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3">
+        <v>81</v>
+      </c>
+      <c r="F5" s="3">
+        <v>41</v>
+      </c>
+      <c r="G5" s="3">
+        <v>63</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3">
+        <v>156</v>
+      </c>
+      <c r="F6" s="3">
+        <v>81</v>
+      </c>
+      <c r="G6" s="3">
+        <v>75</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>140</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>80</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>95</v>
-      </c>
-      <c r="F3">
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3">
+        <v>121</v>
+      </c>
+      <c r="F7" s="3">
+        <v>61</v>
+      </c>
+      <c r="G7" s="3">
         <v>55</v>
       </c>
-      <c r="G3">
-        <v>60</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>160</v>
-      </c>
-      <c r="F4">
-        <v>115</v>
-      </c>
-      <c r="G4">
-        <v>90</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
+      <c r="H7" s="2">
+        <v>45954</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3">
+        <v>131</v>
+      </c>
+      <c r="F8" s="3">
+        <v>66</v>
+      </c>
+      <c r="G8" s="3">
+        <v>79</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45954</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3">
+        <v>121</v>
+      </c>
+      <c r="F9" s="3">
+        <v>66</v>
+      </c>
+      <c r="G9" s="3">
+        <v>61</v>
+      </c>
+      <c r="H9" s="2">
+        <v>45954</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3">
+        <v>106</v>
+      </c>
+      <c r="F10" s="3">
+        <v>56</v>
+      </c>
+      <c r="G10" s="3">
+        <v>64</v>
+      </c>
+      <c r="H10" s="2">
+        <v>45954</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3">
+        <v>91</v>
+      </c>
+      <c r="F11" s="3">
+        <v>41</v>
+      </c>
+      <c r="G11" s="3">
+        <v>58</v>
+      </c>
+      <c r="H11" s="2">
+        <v>45954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="3">
+        <v>86</v>
+      </c>
+      <c r="F12" s="3">
+        <v>56</v>
+      </c>
+      <c r="G12" s="3">
+        <v>64</v>
+      </c>
+      <c r="H12" s="2">
+        <v>45954</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="3">
+        <v>101</v>
+      </c>
+      <c r="F13" s="3">
+        <v>51</v>
+      </c>
+      <c r="G13" s="3">
+        <v>59</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45954</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="3">
+        <v>76</v>
+      </c>
+      <c r="F14" s="3">
+        <v>41</v>
+      </c>
+      <c r="G14" s="3">
+        <v>47</v>
+      </c>
+      <c r="H14" s="2">
+        <v>45954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3">
+        <v>101</v>
+      </c>
+      <c r="F15" s="3">
+        <v>56</v>
+      </c>
+      <c r="G15" s="3">
+        <v>69</v>
+      </c>
+      <c r="H15" s="2">
+        <v>45954</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/atletas_data.xlsx
+++ b/atletas_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\APP DE GESTION DEPORTIVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB0DB65-1D3A-4B5B-9E4B-5BCBBD309BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2002F9A1-DD4A-4A82-8A9C-5C257657F414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1575" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
